--- a/StructureDefinition-BCMetadataParameters.xlsx
+++ b/StructureDefinition-BCMetadataParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T22:21:25+00:00</t>
+    <t>2021-10-22T16:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BCMetadataParameters.xlsx
+++ b/StructureDefinition-BCMetadataParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T16:49:58+00:00</t>
+    <t>2021-10-26T17:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BCMetadataParameters.xlsx
+++ b/StructureDefinition-BCMetadataParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T17:35:26+00:00</t>
+    <t>2021-10-26T20:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BCMetadataParameters.xlsx
+++ b/StructureDefinition-BCMetadataParameters.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T20:20:15+00:00</t>
+    <t>2021-10-27T20:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,6 +486,9 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>MessageRequestID</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -793,7 +796,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3973,8 +3976,844 @@
         <v>67</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK30">
+  <autoFilter ref="A1:AK38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3984,7 +4823,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BCMetadataParameters.xlsx
+++ b/StructureDefinition-BCMetadataParameters.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,7 +335,7 @@
     <t>Parameters.parameter</t>
   </si>
   <si>
-    <t>2</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>MessageRequestID</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Enterer</t>
   </si>
 </sst>
 </file>
@@ -786,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4812,8 +4821,2516 @@
         <v>67</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK38">
+  <autoFilter ref="A1:AK62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4823,7 +7340,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
